--- a/云基功能分析.xlsx
+++ b/云基功能分析.xlsx
@@ -624,7 +624,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,20 +641,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1239,137 +1225,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1391,7 +1377,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
@@ -1400,76 +1386,40 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
@@ -2002,8 +1952,8 @@
   <sheetPr/>
   <dimension ref="A1:H145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="7"/>
@@ -2071,13 +2021,13 @@
       <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="5"/>
@@ -2092,13 +2042,13 @@
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="5"/>
@@ -2110,16 +2060,17 @@
       <c r="B5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="5"/>
+      <c r="G5" s="1"/>
       <c r="H5" s="9">
         <v>3</v>
       </c>
@@ -2131,16 +2082,17 @@
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="5"/>
+      <c r="G6" s="1"/>
       <c r="H6" s="9">
         <v>3</v>
       </c>
@@ -2152,16 +2104,17 @@
       <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="5"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="9">
         <v>3</v>
       </c>
@@ -2170,19 +2123,19 @@
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="15">
+      <c r="E8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2190,19 +2143,20 @@
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="5"/>
+      <c r="G9" s="1"/>
       <c r="H9" s="9">
         <v>3</v>
       </c>
@@ -2211,19 +2165,20 @@
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="5"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="9">
         <v>3</v>
       </c>
@@ -2235,16 +2190,17 @@
       <c r="B11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="5"/>
+      <c r="G11" s="1"/>
       <c r="H11" s="9">
         <v>3</v>
       </c>
@@ -2262,10 +2218,11 @@
       <c r="D12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="5"/>
+      <c r="G12" s="1"/>
       <c r="H12" s="9">
         <v>3</v>
       </c>
@@ -2277,16 +2234,17 @@
       <c r="B13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="5"/>
+      <c r="G13" s="1"/>
       <c r="H13" s="9">
         <v>3</v>
       </c>
@@ -2298,16 +2256,17 @@
       <c r="B14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="5"/>
+      <c r="G14" s="1"/>
       <c r="H14" s="9">
         <v>3</v>
       </c>
@@ -2319,16 +2278,17 @@
       <c r="B15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="13" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="5"/>
+      <c r="G15" s="1"/>
       <c r="H15" s="9">
         <v>3</v>
       </c>
@@ -2340,16 +2300,17 @@
       <c r="B16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="13" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="5"/>
+      <c r="G16" s="1"/>
       <c r="H16" s="9">
         <v>3</v>
       </c>
@@ -2361,16 +2322,17 @@
       <c r="B17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="13" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="5"/>
+      <c r="G17" s="1"/>
       <c r="H17" s="9">
         <v>3</v>
       </c>
@@ -2379,19 +2341,20 @@
       <c r="A18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="5"/>
+      <c r="G18" s="1"/>
       <c r="H18" s="9">
         <v>3</v>
       </c>
@@ -2409,7 +2372,7 @@
       <c r="D19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="5"/>
@@ -2427,7 +2390,7 @@
       <c r="D20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="5"/>
@@ -2436,16 +2399,16 @@
       <c r="A21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="20" t="s">
+      <c r="D21" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="5"/>
@@ -2454,16 +2417,16 @@
       <c r="A22" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="16" t="s">
+      <c r="D22" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="5"/>
@@ -2472,16 +2435,16 @@
       <c r="A23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="5"/>
@@ -2493,16 +2456,16 @@
       <c r="A24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="5"/>
@@ -2511,10 +2474,10 @@
       </c>
     </row>
     <row r="25" ht="13.5" spans="1:6">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -2523,34 +2486,34 @@
       <c r="D25" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="5"/>
     </row>
     <row r="26" ht="13.5" spans="1:6">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="16" t="s">
+      <c r="D26" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>21</v>
       </c>
       <c r="F26" s="5"/>
     </row>
     <row r="27" ht="13.5" spans="1:8">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -2559,19 +2522,20 @@
       <c r="D27" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F27" s="5"/>
+      <c r="G27" s="1"/>
       <c r="H27" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="28" ht="13.5" spans="1:6">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -2580,45 +2544,45 @@
       <c r="D28" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="15">
+      <c r="E28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="29" ht="13.5" spans="1:6">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="16" t="s">
+      <c r="D29" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="5"/>
     </row>
     <row r="30" ht="13.5" spans="1:7">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="16" t="s">
         <v>53</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F30" s="5"/>
@@ -2627,88 +2591,89 @@
       </c>
     </row>
     <row r="31" ht="13.5" spans="1:8">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F31" s="5"/>
+      <c r="G31" s="1"/>
       <c r="H31" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="32" ht="13.5" spans="1:6">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="16" t="s">
+      <c r="D32" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F32" s="5"/>
     </row>
     <row r="33" ht="13.5" spans="1:6">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="12" t="s">
+      <c r="D33" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F33" s="5"/>
     </row>
     <row r="34" ht="13.5" spans="1:6">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="12" t="s">
+      <c r="D34" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F34" s="5"/>
     </row>
     <row r="35" ht="13.5" spans="1:8">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="6" t="s">
         <v>60</v>
       </c>
       <c r="D35" s="6" t="s">
@@ -2718,38 +2683,39 @@
         <v>15</v>
       </c>
       <c r="F35" s="5"/>
+      <c r="G35" s="1"/>
       <c r="H35" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="36" ht="13.5" spans="1:6">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F36" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="37" ht="13.5" spans="1:6">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="6" t="s">
         <v>64</v>
       </c>
       <c r="D37" s="6" t="s">
@@ -2758,36 +2724,38 @@
       <c r="E37" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F37" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="38" ht="13.5" spans="1:6">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="13" t="s">
         <v>65</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="5"/>
+      <c r="E38" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" ht="13.5" spans="1:8">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="6" t="s">
         <v>66</v>
       </c>
       <c r="D39" s="6" t="s">
@@ -2797,12 +2765,13 @@
         <v>15</v>
       </c>
       <c r="F39" s="5"/>
+      <c r="G39" s="1"/>
       <c r="H39" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="40" ht="13.5" spans="1:6">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -2814,13 +2783,13 @@
       <c r="D40" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F40" s="5"/>
     </row>
     <row r="41" ht="13.5" spans="1:6">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B41" s="7" t="s">
@@ -2832,73 +2801,73 @@
       <c r="D41" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F41" s="5"/>
     </row>
     <row r="42" ht="13.5" spans="1:6">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42" s="22" t="s">
+      <c r="D42" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F42" s="5"/>
     </row>
     <row r="43" ht="13.5" spans="1:6">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F43" s="5"/>
     </row>
     <row r="44" ht="13.5" spans="1:6">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E44" s="25" t="s">
+      <c r="D44" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="17" t="s">
         <v>21</v>
       </c>
       <c r="F44" s="5"/>
     </row>
     <row r="45" ht="13.5" spans="1:6">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="6" t="s">
         <v>74</v>
       </c>
       <c r="D45" s="6" t="s">
@@ -2910,46 +2879,46 @@
       <c r="F45" s="5"/>
     </row>
     <row r="46" ht="13.5" spans="1:6">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E46" s="12" t="s">
+      <c r="D46" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F46" s="5"/>
     </row>
     <row r="47" ht="13.5" spans="1:6">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D47" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E47" s="16" t="s">
+      <c r="D47" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F47" s="5"/>
     </row>
     <row r="48" ht="13.5" spans="1:6">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="7" t="s">
         <v>77</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -2958,25 +2927,25 @@
       <c r="D48" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="5"/>
     </row>
     <row r="49" ht="13.5" spans="1:7">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D49" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E49" s="12" t="s">
+      <c r="D49" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F49" s="5"/>
@@ -2985,13 +2954,13 @@
       </c>
     </row>
     <row r="50" ht="13.5" spans="1:6">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="6" t="s">
         <v>80</v>
       </c>
       <c r="D50" s="6" t="s">
@@ -3003,238 +2972,238 @@
       <c r="F50" s="5"/>
     </row>
     <row r="51" ht="13.5" spans="1:6">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="12" t="s">
+      <c r="E51" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="5"/>
     </row>
-    <row r="52" ht="13.5" spans="1:6">
-      <c r="A52" s="10" t="s">
+    <row r="52" customHeight="1" spans="1:6">
+      <c r="A52" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D52" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E52" s="16" t="s">
+      <c r="D52" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F52" s="5"/>
     </row>
     <row r="53" ht="13.5" spans="1:6">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="C53" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D53" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E53" s="22" t="s">
+      <c r="D53" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F53" s="5"/>
     </row>
     <row r="54" ht="13.5" spans="1:6">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C54" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D54" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E54" s="22" t="s">
+      <c r="D54" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F54" s="5"/>
     </row>
     <row r="55" ht="13.5" spans="1:6">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C55" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D55" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E55" s="22" t="s">
+      <c r="D55" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F55" s="5"/>
     </row>
     <row r="56" ht="13.5" spans="1:6">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C56" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D56" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E56" s="22" t="s">
+      <c r="D56" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F56" s="5"/>
     </row>
     <row r="57" ht="13.5" spans="1:6">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E57" s="22" t="s">
+      <c r="D57" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F57" s="5"/>
     </row>
     <row r="58" ht="13.5" spans="1:6">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D58" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E58" s="22" t="s">
+      <c r="D58" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F58" s="5"/>
     </row>
     <row r="59" ht="13.5" spans="1:6">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C59" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D59" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E59" s="22" t="s">
+      <c r="D59" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F59" s="5"/>
     </row>
     <row r="60" ht="13.5" spans="1:6">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D60" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E60" s="22" t="s">
+      <c r="D60" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F60" s="5"/>
     </row>
     <row r="61" ht="13.5" spans="1:6">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D61" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E61" s="25" t="s">
+      <c r="D61" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="17" t="s">
         <v>21</v>
       </c>
       <c r="F61" s="5"/>
     </row>
     <row r="62" ht="13.5" spans="1:7">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C62" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D62" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E62" s="22" t="s">
+      <c r="D62" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F62" s="22"/>
+      <c r="F62" s="16"/>
       <c r="G62" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="63" ht="13.5" spans="1:7">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D63" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E63" s="22" t="s">
+      <c r="D63" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="5"/>
@@ -3243,19 +3212,19 @@
       </c>
     </row>
     <row r="64" ht="13.5" spans="1:7">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D64" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E64" s="22" t="s">
+      <c r="D64" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="5"/>
@@ -3264,19 +3233,19 @@
       </c>
     </row>
     <row r="65" ht="13.5" spans="1:7">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D65" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E65" s="22" t="s">
+      <c r="D65" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E65" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F65" s="5"/>
@@ -3285,19 +3254,19 @@
       </c>
     </row>
     <row r="66" ht="13.5" spans="1:7">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D66" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E66" s="22" t="s">
+      <c r="D66" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F66" s="5"/>
@@ -3306,19 +3275,19 @@
       </c>
     </row>
     <row r="67" ht="13.5" spans="1:7">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D67" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E67" s="22" t="s">
+      <c r="D67" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E67" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="5"/>
@@ -3327,19 +3296,19 @@
       </c>
     </row>
     <row r="68" ht="13.5" spans="1:7">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C68" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D68" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E68" s="22" t="s">
+      <c r="D68" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E68" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="5"/>
@@ -3348,19 +3317,19 @@
       </c>
     </row>
     <row r="69" ht="13.5" spans="1:7">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D69" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E69" s="22" t="s">
+      <c r="D69" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E69" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F69" s="5"/>
@@ -3369,19 +3338,19 @@
       </c>
     </row>
     <row r="70" ht="13.5" spans="1:7">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D70" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E70" s="22" t="s">
+      <c r="D70" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E70" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F70" s="5"/>
@@ -3390,19 +3359,19 @@
       </c>
     </row>
     <row r="71" ht="13.5" spans="1:7">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D71" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E71" s="22" t="s">
+      <c r="D71" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E71" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F71" s="5"/>
@@ -3411,19 +3380,19 @@
       </c>
     </row>
     <row r="72" ht="13.5" spans="1:7">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="7" t="s">
         <v>107</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C72" s="23" t="s">
+      <c r="C72" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D72" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E72" s="12" t="s">
+      <c r="D72" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E72" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F72" s="5"/>
@@ -3432,19 +3401,19 @@
       </c>
     </row>
     <row r="73" ht="13.5" spans="1:7">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="7" t="s">
         <v>107</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C73" s="23" t="s">
+      <c r="C73" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D73" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E73" s="12" t="s">
+      <c r="D73" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E73" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F73" s="5"/>
@@ -3453,16 +3422,16 @@
       </c>
     </row>
     <row r="74" ht="13.5" spans="1:7">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="7" t="s">
         <v>107</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C74" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D74" s="22" t="s">
+      <c r="D74" s="16" t="s">
         <v>39</v>
       </c>
       <c r="E74" s="6" t="s">
@@ -3474,13 +3443,13 @@
       </c>
     </row>
     <row r="75" ht="13.5" spans="1:6">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C75" s="6" t="s">
         <v>113</v>
       </c>
       <c r="D75" s="6" t="s">
@@ -3489,18 +3458,18 @@
       <c r="E75" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F75" s="15">
+      <c r="F75" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="76" ht="13.5" spans="1:6">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C76" s="6" t="s">
         <v>114</v>
       </c>
       <c r="D76" s="6" t="s">
@@ -3509,18 +3478,18 @@
       <c r="E76" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F76" s="15">
+      <c r="F76" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="77" ht="13.5" spans="1:6">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C77" s="23" t="s">
+      <c r="C77" s="11" t="s">
         <v>115</v>
       </c>
       <c r="D77" s="6" t="s">
@@ -3529,18 +3498,18 @@
       <c r="E77" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F77" s="15">
+      <c r="F77" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="78" ht="13.5" spans="1:6">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C78" s="23" t="s">
+      <c r="C78" s="11" t="s">
         <v>116</v>
       </c>
       <c r="D78" s="6" t="s">
@@ -3549,18 +3518,18 @@
       <c r="E78" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F78" s="15">
+      <c r="F78" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="79" ht="13.5" spans="1:6">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C79" s="6" t="s">
         <v>117</v>
       </c>
       <c r="D79" s="6" t="s">
@@ -3569,18 +3538,18 @@
       <c r="E79" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F79" s="15">
+      <c r="F79" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="80" ht="13.5" spans="1:6">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C80" s="6" t="s">
         <v>118</v>
       </c>
       <c r="D80" s="6" t="s">
@@ -3589,18 +3558,18 @@
       <c r="E80" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F80" s="15">
+      <c r="F80" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="81" ht="13.5" spans="1:6">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C81" s="6" t="s">
         <v>119</v>
       </c>
       <c r="D81" s="6" t="s">
@@ -3609,18 +3578,18 @@
       <c r="E81" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F81" s="15">
+      <c r="F81" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="82" ht="13.5" spans="1:6">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C82" s="23" t="s">
+      <c r="C82" s="11" t="s">
         <v>120</v>
       </c>
       <c r="D82" s="6" t="s">
@@ -3629,18 +3598,18 @@
       <c r="E82" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F82" s="15">
+      <c r="F82" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="83" ht="13.5" spans="1:6">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C83" s="23" t="s">
+      <c r="C83" s="11" t="s">
         <v>121</v>
       </c>
       <c r="D83" s="6" t="s">
@@ -3649,18 +3618,18 @@
       <c r="E83" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F83" s="15">
+      <c r="F83" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="84" ht="13.5" spans="1:6">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C84" s="23" t="s">
+      <c r="C84" s="11" t="s">
         <v>122</v>
       </c>
       <c r="D84" s="6" t="s">
@@ -3669,18 +3638,18 @@
       <c r="E84" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F84" s="15">
+      <c r="F84" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="85" ht="13.5" spans="1:6">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C85" s="6" t="s">
         <v>123</v>
       </c>
       <c r="D85" s="6" t="s">
@@ -3689,36 +3658,36 @@
       <c r="E85" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F85" s="15">
+      <c r="F85" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="86" ht="13.5" spans="1:6">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C86" s="23" t="s">
+      <c r="C86" s="11" t="s">
         <v>126</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E86" s="12" t="s">
+      <c r="E86" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F86" s="5"/>
     </row>
     <row r="87" ht="13.5" spans="1:6">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="C87" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D87" s="6" t="s">
@@ -3730,13 +3699,13 @@
       <c r="F87" s="5"/>
     </row>
     <row r="88" ht="13.5" spans="1:6">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C88" s="6" t="s">
         <v>128</v>
       </c>
       <c r="D88" s="6" t="s">
@@ -3747,14 +3716,14 @@
       </c>
       <c r="F88" s="5"/>
     </row>
-    <row r="89" ht="27" spans="1:6">
-      <c r="A89" s="10" t="s">
+    <row r="89" ht="13.5" spans="1:6">
+      <c r="A89" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C89" s="6" t="s">
         <v>129</v>
       </c>
       <c r="D89" s="6" t="s">
@@ -3766,13 +3735,13 @@
       <c r="F89" s="5"/>
     </row>
     <row r="90" ht="13.5" spans="1:6">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C90" s="14" t="s">
+      <c r="C90" s="6" t="s">
         <v>130</v>
       </c>
       <c r="D90" s="6" t="s">
@@ -3784,13 +3753,13 @@
       <c r="F90" s="5"/>
     </row>
     <row r="91" ht="13.5" spans="1:6">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C91" s="14" t="s">
+      <c r="C91" s="6" t="s">
         <v>131</v>
       </c>
       <c r="D91" s="6" t="s">
@@ -3802,37 +3771,37 @@
       <c r="F91" s="5"/>
     </row>
     <row r="92" ht="13.5" spans="1:6">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C92" s="23" t="s">
+      <c r="C92" s="11" t="s">
         <v>132</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E92" s="12" t="s">
+      <c r="E92" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F92" s="5"/>
     </row>
     <row r="93" ht="13.5" spans="1:7">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C93" s="12" t="s">
+      <c r="C93" s="11" t="s">
         <v>133</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E93" s="12" t="s">
+      <c r="E93" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F93" s="5"/>
@@ -3841,19 +3810,19 @@
       </c>
     </row>
     <row r="94" ht="13.5" spans="1:7">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B94" s="14" t="s">
+      <c r="B94" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C94" s="12" t="s">
+      <c r="C94" s="11" t="s">
         <v>134</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E94" s="12" t="s">
+      <c r="E94" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F94" s="5"/>
@@ -3862,13 +3831,13 @@
       </c>
     </row>
     <row r="95" ht="13.5" spans="1:6">
-      <c r="A95" s="10" t="s">
+      <c r="A95" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C95" s="14" t="s">
+      <c r="C95" s="6" t="s">
         <v>136</v>
       </c>
       <c r="D95" s="6" t="s">
@@ -3880,13 +3849,13 @@
       <c r="F95" s="5"/>
     </row>
     <row r="96" ht="13.5" spans="1:6">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B96" s="14" t="s">
+      <c r="B96" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C96" s="14" t="s">
+      <c r="C96" s="6" t="s">
         <v>137</v>
       </c>
       <c r="D96" s="6" t="s">
@@ -3898,13 +3867,13 @@
       <c r="F96" s="5"/>
     </row>
     <row r="97" ht="13.5" spans="1:6">
-      <c r="A97" s="10" t="s">
+      <c r="A97" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C97" s="14" t="s">
+      <c r="C97" s="6" t="s">
         <v>138</v>
       </c>
       <c r="D97" s="6" t="s">
@@ -3916,10 +3885,10 @@
       <c r="F97" s="5"/>
     </row>
     <row r="98" ht="13.5" spans="1:7">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C98" s="6" t="s">
@@ -3937,19 +3906,19 @@
       </c>
     </row>
     <row r="99" ht="13.5" spans="1:7">
-      <c r="A99" s="10" t="s">
+      <c r="A99" s="7" t="s">
         <v>124</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C99" s="23" t="s">
+      <c r="C99" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D99" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E99" s="12" t="s">
+      <c r="D99" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E99" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F99" s="5"/>
@@ -3958,13 +3927,13 @@
       </c>
     </row>
     <row r="100" ht="13.5" spans="1:7">
-      <c r="A100" s="10" t="s">
+      <c r="A100" s="7" t="s">
         <v>124</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C100" s="14" t="s">
+      <c r="C100" s="6" t="s">
         <v>141</v>
       </c>
       <c r="D100" s="6" t="s">
@@ -3979,40 +3948,40 @@
       </c>
     </row>
     <row r="101" ht="13.5" spans="1:7">
-      <c r="A101" s="10" t="s">
+      <c r="A101" s="7" t="s">
         <v>142</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C101" s="24" t="s">
+      <c r="C101" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="D101" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E101" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F101" s="22"/>
+      <c r="D101" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F101" s="16"/>
       <c r="G101" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="102" ht="13.5" spans="1:7">
-      <c r="A102" s="10" t="s">
+      <c r="A102" s="7" t="s">
         <v>142</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C102" s="24" t="s">
+      <c r="C102" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="D102" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E102" s="22" t="s">
+      <c r="D102" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E102" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F102" s="5"/>
@@ -4021,19 +3990,19 @@
       </c>
     </row>
     <row r="103" ht="13.5" spans="1:7">
-      <c r="A103" s="10" t="s">
+      <c r="A103" s="7" t="s">
         <v>142</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C103" s="21" t="s">
+      <c r="C103" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="D103" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E103" s="22" t="s">
+      <c r="D103" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E103" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F103" s="5"/>
@@ -4042,19 +4011,19 @@
       </c>
     </row>
     <row r="104" ht="13.5" spans="1:7">
-      <c r="A104" s="10" t="s">
+      <c r="A104" s="7" t="s">
         <v>142</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C104" s="24" t="s">
+      <c r="C104" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="D104" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E104" s="22" t="s">
+      <c r="D104" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E104" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F104" s="5"/>
@@ -4063,19 +4032,19 @@
       </c>
     </row>
     <row r="105" ht="13.5" spans="1:7">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="7" t="s">
         <v>142</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C105" s="24" t="s">
+      <c r="C105" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="D105" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E105" s="22" t="s">
+      <c r="D105" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E105" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F105" s="5"/>
@@ -4084,19 +4053,19 @@
       </c>
     </row>
     <row r="106" ht="13.5" spans="1:7">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="7" t="s">
         <v>142</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C106" s="24" t="s">
+      <c r="C106" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="D106" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E106" s="22" t="s">
+      <c r="D106" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E106" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F106" s="5"/>
@@ -4105,19 +4074,19 @@
       </c>
     </row>
     <row r="107" ht="13.5" spans="1:7">
-      <c r="A107" s="10" t="s">
+      <c r="A107" s="7" t="s">
         <v>142</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C107" s="24" t="s">
+      <c r="C107" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="D107" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E107" s="22" t="s">
+      <c r="D107" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E107" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F107" s="5"/>
@@ -4126,19 +4095,19 @@
       </c>
     </row>
     <row r="108" ht="13.5" spans="1:7">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="7" t="s">
         <v>142</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C108" s="24" t="s">
+      <c r="C108" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="D108" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E108" s="22" t="s">
+      <c r="D108" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E108" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F108" s="5"/>
@@ -4153,7 +4122,7 @@
       <c r="B109" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C109" s="12" t="s">
+      <c r="C109" s="11" t="s">
         <v>153</v>
       </c>
       <c r="D109" s="6" t="s">
@@ -4171,7 +4140,7 @@
       <c r="B110" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C110" s="12" t="s">
+      <c r="C110" s="11" t="s">
         <v>155</v>
       </c>
       <c r="D110" s="6" t="s">
@@ -4189,7 +4158,7 @@
       <c r="B111" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C111" s="12" t="s">
+      <c r="C111" s="11" t="s">
         <v>156</v>
       </c>
       <c r="D111" s="6" t="s">
@@ -4207,7 +4176,7 @@
       <c r="B112" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C112" s="12" t="s">
+      <c r="C112" s="11" t="s">
         <v>157</v>
       </c>
       <c r="D112" s="6" t="s">
@@ -4225,7 +4194,7 @@
       <c r="B113" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C113" s="12" t="s">
+      <c r="C113" s="11" t="s">
         <v>158</v>
       </c>
       <c r="D113" s="6" t="s">
@@ -4243,7 +4212,7 @@
       <c r="B114" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C114" s="12" t="s">
+      <c r="C114" s="11" t="s">
         <v>159</v>
       </c>
       <c r="D114" s="6" t="s">
@@ -4261,7 +4230,7 @@
       <c r="B115" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C115" s="12" t="s">
+      <c r="C115" s="11" t="s">
         <v>160</v>
       </c>
       <c r="D115" s="6" t="s">
@@ -4279,7 +4248,7 @@
       <c r="B116" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C116" s="12" t="s">
+      <c r="C116" s="11" t="s">
         <v>161</v>
       </c>
       <c r="D116" s="6" t="s">
@@ -4297,7 +4266,7 @@
       <c r="B117" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C117" s="12" t="s">
+      <c r="C117" s="11" t="s">
         <v>162</v>
       </c>
       <c r="D117" s="6" t="s">
@@ -4315,7 +4284,7 @@
       <c r="B118" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C118" s="12" t="s">
+      <c r="C118" s="11" t="s">
         <v>163</v>
       </c>
       <c r="D118" s="6" t="s">
@@ -4333,7 +4302,7 @@
       <c r="B119" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C119" s="12" t="s">
+      <c r="C119" s="11" t="s">
         <v>165</v>
       </c>
       <c r="D119" s="6" t="s">
@@ -4351,7 +4320,7 @@
       <c r="B120" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C120" s="12" t="s">
+      <c r="C120" s="11" t="s">
         <v>166</v>
       </c>
       <c r="D120" s="6" t="s">
@@ -4369,7 +4338,7 @@
       <c r="B121" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C121" s="12" t="s">
+      <c r="C121" s="11" t="s">
         <v>167</v>
       </c>
       <c r="D121" s="6" t="s">
@@ -4387,7 +4356,7 @@
       <c r="B122" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C122" s="12" t="s">
+      <c r="C122" s="11" t="s">
         <v>168</v>
       </c>
       <c r="D122" s="6" t="s">
@@ -4405,7 +4374,7 @@
       <c r="B123" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C123" s="12" t="s">
+      <c r="C123" s="11" t="s">
         <v>169</v>
       </c>
       <c r="D123" s="6" t="s">
@@ -4441,10 +4410,10 @@
       <c r="A125" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B125" s="14" t="s">
+      <c r="B125" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C125" s="23" t="s">
+      <c r="C125" s="11" t="s">
         <v>173</v>
       </c>
       <c r="D125" s="6" t="s">
@@ -4459,10 +4428,10 @@
       <c r="A126" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B126" s="14" t="s">
+      <c r="B126" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C126" s="23" t="s">
+      <c r="C126" s="11" t="s">
         <v>174</v>
       </c>
       <c r="D126" s="6" t="s">
@@ -4477,10 +4446,10 @@
       <c r="A127" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B127" s="14" t="s">
+      <c r="B127" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C127" s="23" t="s">
+      <c r="C127" s="11" t="s">
         <v>175</v>
       </c>
       <c r="D127" s="6" t="s">
@@ -4495,10 +4464,10 @@
       <c r="A128" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B128" s="14" t="s">
+      <c r="B128" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C128" s="23" t="s">
+      <c r="C128" s="11" t="s">
         <v>176</v>
       </c>
       <c r="D128" s="6" t="s">
@@ -4513,10 +4482,10 @@
       <c r="A129" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B129" s="14" t="s">
+      <c r="B129" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C129" s="12" t="s">
+      <c r="C129" s="11" t="s">
         <v>177</v>
       </c>
       <c r="D129" s="6" t="s">
@@ -4531,7 +4500,7 @@
       <c r="A130" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B130" s="14" t="s">
+      <c r="B130" s="6" t="s">
         <v>172</v>
       </c>
       <c r="C130" s="6" t="s">
@@ -4549,10 +4518,10 @@
       <c r="A131" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B131" s="14" t="s">
+      <c r="B131" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C131" s="14" t="s">
+      <c r="C131" s="6" t="s">
         <v>179</v>
       </c>
       <c r="D131" s="6" t="s">
@@ -4567,10 +4536,10 @@
       <c r="A132" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B132" s="14" t="s">
+      <c r="B132" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C132" s="23" t="s">
+      <c r="C132" s="11" t="s">
         <v>180</v>
       </c>
       <c r="D132" s="6" t="s">
@@ -4585,10 +4554,10 @@
       <c r="A133" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B133" s="14" t="s">
+      <c r="B133" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C133" s="23" t="s">
+      <c r="C133" s="11" t="s">
         <v>181</v>
       </c>
       <c r="D133" s="6" t="s">
@@ -4603,10 +4572,10 @@
       <c r="A134" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B134" s="14" t="s">
+      <c r="B134" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C134" s="14" t="s">
+      <c r="C134" s="6" t="s">
         <v>182</v>
       </c>
       <c r="D134" s="6" t="s">
@@ -4621,10 +4590,10 @@
       <c r="A135" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B135" s="14" t="s">
+      <c r="B135" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C135" s="23" t="s">
+      <c r="C135" s="11" t="s">
         <v>72</v>
       </c>
       <c r="D135" s="6" t="s">
@@ -4639,10 +4608,10 @@
       <c r="A136" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B136" s="14" t="s">
+      <c r="B136" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C136" s="23" t="s">
+      <c r="C136" s="11" t="s">
         <v>183</v>
       </c>
       <c r="D136" s="6" t="s">
@@ -4657,10 +4626,10 @@
       <c r="A137" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B137" s="14" t="s">
+      <c r="B137" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C137" s="23" t="s">
+      <c r="C137" s="11" t="s">
         <v>184</v>
       </c>
       <c r="D137" s="6" t="s">
@@ -4675,10 +4644,10 @@
       <c r="A138" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B138" s="14" t="s">
+      <c r="B138" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C138" s="14" t="s">
+      <c r="C138" s="6" t="s">
         <v>136</v>
       </c>
       <c r="D138" s="6" t="s">
@@ -4693,130 +4662,133 @@
       <c r="A139" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B139" s="12" t="s">
+      <c r="B139" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="C139" s="12" t="s">
+      <c r="C139" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="D139" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E139" s="12" t="s">
+      <c r="D139" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E139" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F139" s="5"/>
     </row>
     <row r="140" ht="13.5" spans="1:6">
-      <c r="A140" s="26" t="s">
+      <c r="A140" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="B140" s="27" t="s">
+      <c r="B140" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="C140" s="28" t="s">
+      <c r="C140" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="D140" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E140" s="29" t="s">
+      <c r="D140" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E140" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F140" s="5"/>
     </row>
     <row r="141" ht="13.5" spans="1:6">
-      <c r="A141" s="26" t="s">
+      <c r="A141" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="B141" s="27" t="s">
+      <c r="B141" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="C141" s="30" t="s">
+      <c r="C141" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D141" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="E141" s="32" t="s">
+      <c r="D141" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E141" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F141" s="5"/>
     </row>
     <row r="142" ht="13.5" spans="1:6">
-      <c r="A142" s="32" t="s">
+      <c r="A142" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="B142" s="33" t="s">
+      <c r="B142" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="C142" s="33" t="s">
+      <c r="C142" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D142" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E142" s="32" t="s">
+      <c r="D142" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E142" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F142" s="5"/>
     </row>
     <row r="143" ht="13.5" spans="1:7">
-      <c r="A143" s="34" t="s">
+      <c r="A143" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="B143" s="34" t="s">
+      <c r="B143" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="C143" s="34" t="s">
+      <c r="C143" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="D143" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E143" s="32" t="s">
+      <c r="D143" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E143" s="21" t="s">
         <v>12</v>
       </c>
+      <c r="F143" s="1"/>
       <c r="G143" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="144" ht="13.5" spans="1:7">
-      <c r="A144" s="34" t="s">
+      <c r="A144" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="B144" s="34" t="s">
+      <c r="B144" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="C144" s="34" t="s">
+      <c r="C144" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="D144" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E144" s="32" t="s">
+      <c r="D144" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E144" s="21" t="s">
         <v>12</v>
       </c>
+      <c r="F144" s="1"/>
       <c r="G144" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="145" ht="13.5" spans="1:7">
-      <c r="A145" s="34" t="s">
+      <c r="A145" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="B145" s="34" t="s">
+      <c r="B145" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="C145" s="34" t="s">
+      <c r="C145" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="D145" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E145" s="32" t="s">
+      <c r="D145" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E145" s="21" t="s">
         <v>12</v>
       </c>
+      <c r="F145" s="1"/>
       <c r="G145" s="9">
         <v>2</v>
       </c>
